--- a/1uO_c_v1_2-BOM.xlsx
+++ b/1uO_c_v1_2-BOM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shayshez/Desktop/GitHub-1uOc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7503E21-9CAE-A047-9DA5-6A59E01965B7}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{755CAC72-19A6-EF4A-B7A0-9546B3358A4F}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540" xr2:uid="{1A515552-B201-574F-9501-0CED91DEEB15}"/>
   </bookViews>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="180">
   <si>
     <t>Qty</t>
   </si>
@@ -259,12 +259,6 @@
     <t>DIODE</t>
   </si>
   <si>
-    <t>1U_1.3OLED1U_1.3OLED_2</t>
-  </si>
-  <si>
-    <t>1U_1.3OLED_2</t>
-  </si>
-  <si>
     <t>OLED</t>
   </si>
   <si>
@@ -520,18 +514,9 @@
     <t>POWER_10</t>
   </si>
   <si>
-    <t>TEENSY_3.1-3.2_DIL</t>
-  </si>
-  <si>
-    <t>TEENSY_3.0-3.2&amp;LC_DIL</t>
-  </si>
-  <si>
     <t>TEENSY_3.2</t>
   </si>
   <si>
-    <t>Teensy 3.1 or 3.2 in a DIL Layout.</t>
-  </si>
-  <si>
     <t>2X5 Male Pin Header</t>
   </si>
   <si>
@@ -605,6 +590,21 @@
   </si>
   <si>
     <t>J1</t>
+  </si>
+  <si>
+    <t>1U_1.3_OLED_2</t>
+  </si>
+  <si>
+    <t>1U_1.3_OLED</t>
+  </si>
+  <si>
+    <t>https://github.com/Shayshez/1_3_OLED_FOR_1U</t>
+  </si>
+  <si>
+    <t>TEENSY 3.2</t>
+  </si>
+  <si>
+    <t>https://store.oshpark.com/products/teensy-3-1</t>
   </si>
 </sst>
 </file>
@@ -1015,8 +1015,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AB679F0-980D-D342-B6AB-BF0793C697F5}">
   <dimension ref="A1:Z41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C14" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="E35" sqref="E35"/>
+    <sheetView tabSelected="1" topLeftCell="F14" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="G37" sqref="G37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1066,7 +1066,7 @@
         <v>4</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>5</v>
@@ -1146,7 +1146,7 @@
         <v>36</v>
       </c>
       <c r="F2" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="G2" t="s">
         <v>33</v>
@@ -1160,7 +1160,7 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C3" t="s">
         <v>30</v>
@@ -1169,10 +1169,10 @@
         <v>31</v>
       </c>
       <c r="E3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F3" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="G3" t="s">
         <v>33</v>
@@ -1186,7 +1186,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C4" t="s">
         <v>30</v>
@@ -1195,10 +1195,10 @@
         <v>31</v>
       </c>
       <c r="E4" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F4" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="G4" t="s">
         <v>33</v>
@@ -1212,7 +1212,7 @@
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C5" t="s">
         <v>30</v>
@@ -1221,10 +1221,10 @@
         <v>31</v>
       </c>
       <c r="E5" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F5" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="G5" t="s">
         <v>33</v>
@@ -1250,7 +1250,7 @@
         <v>43</v>
       </c>
       <c r="F6" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="G6" t="s">
         <v>33</v>
@@ -1264,7 +1264,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C7" t="s">
         <v>30</v>
@@ -1273,10 +1273,10 @@
         <v>31</v>
       </c>
       <c r="E7" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F7" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="G7" t="s">
         <v>33</v>
@@ -1290,7 +1290,7 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C8" t="s">
         <v>30</v>
@@ -1299,10 +1299,10 @@
         <v>31</v>
       </c>
       <c r="E8" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F8" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="G8" t="s">
         <v>33</v>
@@ -1316,7 +1316,7 @@
         <v>2</v>
       </c>
       <c r="B9" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C9" t="s">
         <v>30</v>
@@ -1325,10 +1325,10 @@
         <v>31</v>
       </c>
       <c r="E9" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="F9" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="G9" t="s">
         <v>33</v>
@@ -1342,7 +1342,7 @@
         <v>4</v>
       </c>
       <c r="B10" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C10" t="s">
         <v>30</v>
@@ -1351,10 +1351,10 @@
         <v>31</v>
       </c>
       <c r="E10" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F10" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="G10" t="s">
         <v>33</v>
@@ -1380,7 +1380,7 @@
         <v>32</v>
       </c>
       <c r="F11" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="G11" t="s">
         <v>33</v>
@@ -1395,7 +1395,7 @@
         <v>4</v>
       </c>
       <c r="B13" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C13" t="s">
         <v>38</v>
@@ -1404,7 +1404,7 @@
         <v>39</v>
       </c>
       <c r="E13" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G13" t="s">
         <v>41</v>
@@ -1415,7 +1415,7 @@
         <v>4</v>
       </c>
       <c r="B14" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C14" t="s">
         <v>38</v>
@@ -1424,7 +1424,7 @@
         <v>39</v>
       </c>
       <c r="E14" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G14" t="s">
         <v>41</v>
@@ -1455,7 +1455,7 @@
         <v>4</v>
       </c>
       <c r="B16" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C16" t="s">
         <v>38</v>
@@ -1464,7 +1464,7 @@
         <v>39</v>
       </c>
       <c r="E16" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G16" t="s">
         <v>41</v>
@@ -1475,7 +1475,7 @@
         <v>2</v>
       </c>
       <c r="B17" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C17" t="s">
         <v>38</v>
@@ -1484,7 +1484,7 @@
         <v>39</v>
       </c>
       <c r="E17" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G17" t="s">
         <v>41</v>
@@ -1538,16 +1538,16 @@
         <v>2</v>
       </c>
       <c r="B20" t="s">
+        <v>71</v>
+      </c>
+      <c r="C20" t="s">
+        <v>72</v>
+      </c>
+      <c r="D20" t="s">
         <v>73</v>
       </c>
-      <c r="C20" t="s">
+      <c r="E20" t="s">
         <v>74</v>
-      </c>
-      <c r="D20" t="s">
-        <v>75</v>
-      </c>
-      <c r="E20" t="s">
-        <v>76</v>
       </c>
       <c r="G20" t="s">
         <v>51</v>
@@ -1574,7 +1574,7 @@
         <v>56</v>
       </c>
       <c r="F22" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="G22" t="s">
         <v>57</v>
@@ -1608,25 +1608,25 @@
         <v>4</v>
       </c>
       <c r="B24" t="s">
+        <v>131</v>
+      </c>
+      <c r="C24" t="s">
+        <v>132</v>
+      </c>
+      <c r="D24" t="s">
         <v>133</v>
       </c>
-      <c r="C24" t="s">
+      <c r="E24" t="s">
         <v>134</v>
-      </c>
-      <c r="D24" t="s">
-        <v>135</v>
-      </c>
-      <c r="E24" t="s">
-        <v>136</v>
       </c>
       <c r="G24">
         <v>305010013</v>
       </c>
       <c r="S24" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="Y24" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="25" spans="1:26" s="1" customFormat="1" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25"/>
@@ -1635,37 +1635,37 @@
         <v>1</v>
       </c>
       <c r="B26" t="s">
+        <v>100</v>
+      </c>
+      <c r="C26" t="s">
+        <v>100</v>
+      </c>
+      <c r="D26" t="s">
+        <v>101</v>
+      </c>
+      <c r="E26" t="s">
         <v>102</v>
       </c>
-      <c r="C26" t="s">
-        <v>102</v>
-      </c>
-      <c r="D26" t="s">
+      <c r="G26" t="s">
         <v>103</v>
       </c>
-      <c r="E26" t="s">
+      <c r="L26" t="s">
+        <v>94</v>
+      </c>
+      <c r="M26" t="s">
         <v>104</v>
       </c>
-      <c r="G26" t="s">
+      <c r="Q26" t="s">
         <v>105</v>
       </c>
-      <c r="L26" t="s">
-        <v>96</v>
-      </c>
-      <c r="M26" t="s">
+      <c r="R26" t="s">
+        <v>100</v>
+      </c>
+      <c r="T26" t="s">
         <v>106</v>
       </c>
-      <c r="Q26" t="s">
+      <c r="U26" t="s">
         <v>107</v>
-      </c>
-      <c r="R26" t="s">
-        <v>102</v>
-      </c>
-      <c r="T26" t="s">
-        <v>108</v>
-      </c>
-      <c r="U26" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="27" spans="1:26" x14ac:dyDescent="0.2">
@@ -1673,19 +1673,19 @@
         <v>1</v>
       </c>
       <c r="B27" t="s">
+        <v>116</v>
+      </c>
+      <c r="C27" t="s">
+        <v>117</v>
+      </c>
+      <c r="D27" t="s">
         <v>118</v>
       </c>
-      <c r="C27" t="s">
+      <c r="E27" t="s">
         <v>119</v>
       </c>
-      <c r="D27" t="s">
+      <c r="G27" t="s">
         <v>120</v>
-      </c>
-      <c r="E27" t="s">
-        <v>121</v>
-      </c>
-      <c r="G27" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="28" spans="1:26" x14ac:dyDescent="0.2">
@@ -1693,19 +1693,19 @@
         <v>2</v>
       </c>
       <c r="B28" t="s">
+        <v>136</v>
+      </c>
+      <c r="C28" t="s">
+        <v>136</v>
+      </c>
+      <c r="D28" t="s">
+        <v>137</v>
+      </c>
+      <c r="E28" t="s">
         <v>138</v>
       </c>
-      <c r="C28" t="s">
-        <v>138</v>
-      </c>
-      <c r="D28" t="s">
+      <c r="G28" t="s">
         <v>139</v>
-      </c>
-      <c r="E28" t="s">
-        <v>140</v>
-      </c>
-      <c r="G28" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="29" spans="1:26" x14ac:dyDescent="0.2">
@@ -1713,19 +1713,19 @@
         <v>2</v>
       </c>
       <c r="B29" t="s">
+        <v>121</v>
+      </c>
+      <c r="C29" t="s">
+        <v>121</v>
+      </c>
+      <c r="D29" t="s">
+        <v>122</v>
+      </c>
+      <c r="E29" t="s">
         <v>123</v>
       </c>
-      <c r="C29" t="s">
-        <v>123</v>
-      </c>
-      <c r="D29" t="s">
+      <c r="G29" t="s">
         <v>124</v>
-      </c>
-      <c r="E29" t="s">
-        <v>125</v>
-      </c>
-      <c r="G29" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="30" spans="1:26" x14ac:dyDescent="0.2">
@@ -1733,40 +1733,40 @@
         <v>1</v>
       </c>
       <c r="B30" t="s">
+        <v>108</v>
+      </c>
+      <c r="C30" t="s">
+        <v>108</v>
+      </c>
+      <c r="D30" t="s">
+        <v>109</v>
+      </c>
+      <c r="E30" t="s">
         <v>110</v>
       </c>
-      <c r="C30" t="s">
-        <v>110</v>
-      </c>
-      <c r="D30" t="s">
+      <c r="F30" t="s">
+        <v>158</v>
+      </c>
+      <c r="G30" t="s">
         <v>111</v>
       </c>
-      <c r="E30" t="s">
+      <c r="L30" t="s">
+        <v>94</v>
+      </c>
+      <c r="M30" t="s">
         <v>112</v>
       </c>
-      <c r="F30" t="s">
-        <v>163</v>
-      </c>
-      <c r="G30" t="s">
+      <c r="Q30" t="s">
         <v>113</v>
       </c>
-      <c r="L30" t="s">
-        <v>96</v>
-      </c>
-      <c r="M30" t="s">
+      <c r="R30" t="s">
+        <v>108</v>
+      </c>
+      <c r="T30" t="s">
         <v>114</v>
       </c>
-      <c r="Q30" t="s">
+      <c r="U30" t="s">
         <v>115</v>
-      </c>
-      <c r="R30" t="s">
-        <v>110</v>
-      </c>
-      <c r="T30" t="s">
-        <v>116</v>
-      </c>
-      <c r="U30" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="31" spans="1:26" x14ac:dyDescent="0.2">
@@ -1774,34 +1774,34 @@
         <v>1</v>
       </c>
       <c r="B31" t="s">
+        <v>125</v>
+      </c>
+      <c r="C31" t="s">
+        <v>125</v>
+      </c>
+      <c r="D31" t="s">
+        <v>126</v>
+      </c>
+      <c r="E31" t="s">
         <v>127</v>
       </c>
-      <c r="C31" t="s">
-        <v>127</v>
-      </c>
-      <c r="D31" t="s">
+      <c r="G31" t="s">
         <v>128</v>
       </c>
-      <c r="E31" t="s">
+      <c r="J31" t="s">
+        <v>125</v>
+      </c>
+      <c r="M31" t="s">
+        <v>128</v>
+      </c>
+      <c r="N31" t="s">
         <v>129</v>
       </c>
-      <c r="G31" t="s">
+      <c r="O31" t="s">
         <v>130</v>
       </c>
-      <c r="J31" t="s">
-        <v>127</v>
-      </c>
-      <c r="M31" t="s">
-        <v>130</v>
-      </c>
-      <c r="N31" t="s">
-        <v>131</v>
-      </c>
-      <c r="O31" t="s">
-        <v>132</v>
-      </c>
       <c r="P31" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="32" spans="1:26" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -1809,37 +1809,37 @@
         <v>1</v>
       </c>
       <c r="B32" t="s">
+        <v>90</v>
+      </c>
+      <c r="C32" t="s">
+        <v>90</v>
+      </c>
+      <c r="D32" t="s">
+        <v>91</v>
+      </c>
+      <c r="E32" t="s">
         <v>92</v>
       </c>
-      <c r="C32" t="s">
-        <v>92</v>
-      </c>
-      <c r="D32" t="s">
+      <c r="G32" t="s">
         <v>93</v>
       </c>
-      <c r="E32" t="s">
+      <c r="L32" t="s">
         <v>94</v>
       </c>
-      <c r="G32" t="s">
+      <c r="M32" t="s">
         <v>95</v>
       </c>
-      <c r="L32" t="s">
+      <c r="Q32" t="s">
         <v>96</v>
       </c>
-      <c r="M32" t="s">
+      <c r="R32" t="s">
         <v>97</v>
       </c>
-      <c r="Q32" t="s">
+      <c r="T32" t="s">
         <v>98</v>
       </c>
-      <c r="R32" t="s">
+      <c r="U32" t="s">
         <v>99</v>
-      </c>
-      <c r="T32" t="s">
-        <v>100</v>
-      </c>
-      <c r="U32" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="33" spans="1:23" s="1" customFormat="1" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25"/>
@@ -1848,16 +1848,16 @@
         <v>1</v>
       </c>
       <c r="B34" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="C34" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="D34" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E34" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
     </row>
     <row r="35" spans="1:23" x14ac:dyDescent="0.2">
@@ -1874,7 +1874,7 @@
         <v>27</v>
       </c>
       <c r="F35" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="G35" t="s">
         <v>28</v>
@@ -1885,19 +1885,19 @@
         <v>1</v>
       </c>
       <c r="B36" t="s">
-        <v>151</v>
+        <v>178</v>
       </c>
       <c r="C36" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D36" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="E36" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="G36" t="s">
-        <v>154</v>
+        <v>179</v>
       </c>
     </row>
     <row r="37" spans="1:23" x14ac:dyDescent="0.2">
@@ -1908,13 +1908,16 @@
         <v>64</v>
       </c>
       <c r="C37" t="s">
+        <v>176</v>
+      </c>
+      <c r="D37" t="s">
+        <v>175</v>
+      </c>
+      <c r="E37" t="s">
         <v>64</v>
       </c>
-      <c r="D37" t="s">
-        <v>65</v>
-      </c>
-      <c r="E37" t="s">
-        <v>66</v>
+      <c r="G37" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="38" spans="1:23" x14ac:dyDescent="0.2">
@@ -1922,16 +1925,16 @@
         <v>12</v>
       </c>
       <c r="B38" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="C38" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="D38" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="E38" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="39" spans="1:23" x14ac:dyDescent="0.2">
@@ -1939,49 +1942,49 @@
         <v>2</v>
       </c>
       <c r="B39" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="C39" t="s">
+        <v>140</v>
+      </c>
+      <c r="D39" t="s">
+        <v>141</v>
+      </c>
+      <c r="E39" t="s">
         <v>142</v>
       </c>
-      <c r="D39" t="s">
+      <c r="G39" t="s">
         <v>143</v>
-      </c>
-      <c r="E39" t="s">
-        <v>144</v>
-      </c>
-      <c r="G39" t="s">
-        <v>145</v>
       </c>
       <c r="H39">
         <v>70407906</v>
       </c>
       <c r="I39" t="s">
+        <v>144</v>
+      </c>
+      <c r="J39" t="s">
+        <v>145</v>
+      </c>
+      <c r="K39" t="s">
         <v>146</v>
       </c>
-      <c r="J39" t="s">
+      <c r="M39" t="s">
+        <v>143</v>
+      </c>
+      <c r="N39" t="s">
+        <v>129</v>
+      </c>
+      <c r="O39" t="s">
         <v>147</v>
       </c>
-      <c r="K39" t="s">
-        <v>148</v>
-      </c>
-      <c r="M39" t="s">
+      <c r="P39" t="s">
         <v>145</v>
-      </c>
-      <c r="N39" t="s">
-        <v>131</v>
-      </c>
-      <c r="O39" t="s">
-        <v>149</v>
-      </c>
-      <c r="P39" t="s">
-        <v>147</v>
       </c>
       <c r="V39">
         <v>1674651</v>
       </c>
       <c r="W39" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="40" spans="1:23" x14ac:dyDescent="0.2">
@@ -1989,10 +1992,10 @@
         <v>3</v>
       </c>
       <c r="B40" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="C40" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
     </row>
     <row r="41" spans="1:23" x14ac:dyDescent="0.2">
@@ -2000,10 +2003,10 @@
         <v>3</v>
       </c>
       <c r="B41" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="C41" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
     </row>
   </sheetData>

--- a/1uO_c_v1_2-BOM.xlsx
+++ b/1uO_c_v1_2-BOM.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shayshez/Desktop/GitHub-1uOc/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shayshez/Documents/eagle/projects/1uO_c/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{755CAC72-19A6-EF4A-B7A0-9546B3358A4F}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DFA8312-043F-0140-AAAD-21D5E08AE020}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540" xr2:uid="{1A515552-B201-574F-9501-0CED91DEEB15}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_1uO_c_v_1_1" localSheetId="0">Sheet1!$A$1:$AA$36</definedName>
+    <definedName name="_1uO_c_v_1_1" localSheetId="0">Sheet1!$A$1:$AA$38</definedName>
   </definedNames>
   <calcPr calcId="171027" concurrentCalc="0"/>
   <extLst>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="211">
   <si>
     <t>Qty</t>
   </si>
@@ -142,15 +142,9 @@
     <t>WE-NUMBER</t>
   </si>
   <si>
-    <t>TAC_SWITCHPTH</t>
-  </si>
-  <si>
     <t>TACTILE-PTH</t>
   </si>
   <si>
-    <t>SW_B, SW_T</t>
-  </si>
-  <si>
     <t>Momentary Switch</t>
   </si>
   <si>
@@ -274,9 +268,6 @@
     <t>R1, R3, R5, R6</t>
   </si>
   <si>
-    <t>22p</t>
-  </si>
-  <si>
     <t>C5, C6, C11, C12</t>
   </si>
   <si>
@@ -445,9 +436,6 @@
     <t>MIC803-46D2VM3TR</t>
   </si>
   <si>
-    <t>SOT95P230X110-3N</t>
-  </si>
-  <si>
     <t>IC6</t>
   </si>
   <si>
@@ -517,15 +505,9 @@
     <t>TEENSY_3.2</t>
   </si>
   <si>
-    <t>2X5 Male Pin Header</t>
-  </si>
-  <si>
     <t>POWER</t>
   </si>
   <si>
-    <t xml:space="preserve">3M/6MM standoffs </t>
-  </si>
-  <si>
     <t>For screen mounting</t>
   </si>
   <si>
@@ -544,9 +526,6 @@
     <t>511-LD1117S50</t>
   </si>
   <si>
-    <t>612-TL1105SP</t>
-  </si>
-  <si>
     <t>603-RC0603FR-0710KL</t>
   </si>
   <si>
@@ -592,9 +571,6 @@
     <t>J1</t>
   </si>
   <si>
-    <t>1U_1.3_OLED_2</t>
-  </si>
-  <si>
     <t>1U_1.3_OLED</t>
   </si>
   <si>
@@ -605,13 +581,157 @@
   </si>
   <si>
     <t>https://store.oshpark.com/products/teensy-3-1</t>
+  </si>
+  <si>
+    <t>18p - 22p</t>
+  </si>
+  <si>
+    <t>77-VJ0603A561GXACBC</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">C-EUC0603 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)_x0000_"/>
+      </rPr>
+      <t>C0G/NP0</t>
+    </r>
+  </si>
+  <si>
+    <t>80-C0603C104K3NAUTO</t>
+  </si>
+  <si>
+    <t>810-CGA3E3X7R1H474KB</t>
+  </si>
+  <si>
+    <t>603-CC603KRX5R8BB105</t>
+  </si>
+  <si>
+    <t>963-TMK316BJ106ML-T</t>
+  </si>
+  <si>
+    <t>667-EEE-FK1H100SR</t>
+  </si>
+  <si>
+    <t>667-EEE-FK1H220SR</t>
+  </si>
+  <si>
+    <t>621-1N5819HW-F</t>
+  </si>
+  <si>
+    <t>863-MMBT3904LT1G</t>
+  </si>
+  <si>
+    <t>926-LM4040DIM350NOPB</t>
+  </si>
+  <si>
+    <t>595-TL072CDR</t>
+  </si>
+  <si>
+    <t>584-ADP150AUJZ-3.3R7</t>
+  </si>
+  <si>
+    <t>998-MIC803-26D2VM3TR</t>
+  </si>
+  <si>
+    <t>SEE DESCRIPOTION --&gt;&gt;</t>
+  </si>
+  <si>
+    <t>Teensy Supervisor, You need this only if your case used Linear PSU, Use TH resistor leg to connect RESET hole on 1uT_u PCB to RESET pad on the teensy. In this case it's better to solder the teensy directly to the board.</t>
+  </si>
+  <si>
+    <t>579-MCP6002T-I/SN</t>
+  </si>
+  <si>
+    <t>595-DAC8565IAPW</t>
+  </si>
+  <si>
+    <t>80-C0603C220J5G7411</t>
+  </si>
+  <si>
+    <t>https://www.aliexpress.com/item/Black-100Pcs-Lot-Plastic-Nylon-M3-Hex-Column-Standoff-Spacer-Phillips-Screw-New/32747099724.html?spm=a2g0s.9042311.0.0.27424c4dBrQZyC</t>
+  </si>
+  <si>
+    <t>https://www.aliexpress.com/item/100pcs-lot-M3-5-6-8-10-12-15-18-20-25-black-Nylon-standoff-3mm/32874390664.html?spm=a2g0s.9042311.0.0.27424c4dBrQZyC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3M/6MM Nylon standoffs </t>
+  </si>
+  <si>
+    <t>Tact Switch</t>
+  </si>
+  <si>
+    <t>TACT_SWITCHPTH</t>
+  </si>
+  <si>
+    <t>612-TL1105SP-250</t>
+  </si>
+  <si>
+    <t>SW1, SW2</t>
+  </si>
+  <si>
+    <t>Tact Switch caps</t>
+  </si>
+  <si>
+    <t>12-1R-BK</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)_x0000_"/>
+      </rPr>
+      <t>For more colours:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> https://www.mouser.com/Search/Refine.aspx?FS=TRUE&amp;N=0+4294759258+20706637+4292700930+4294735050+4292590482+4292590450+4292906361</t>
+    </r>
+  </si>
+  <si>
+    <t>See GitHub link --&gt;&gt;</t>
+  </si>
+  <si>
+    <t>1X40 Pin Header</t>
+  </si>
+  <si>
+    <t>Theensy / OLED connector</t>
+  </si>
+  <si>
+    <t>2X5 Pin Header</t>
+  </si>
+  <si>
+    <t>Knobs</t>
+  </si>
+  <si>
+    <t>Sifam soft touch Encoder Knob</t>
+  </si>
+  <si>
+    <t>https://www.thonk.co.uk/shop/sifam-soft-touch-encoder-knobs/</t>
+  </si>
+  <si>
+    <t>858-EN11-HSM1BF20</t>
+  </si>
+  <si>
+    <t>Thonk</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -635,8 +755,20 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri (Body)_x0000_"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -646,6 +778,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
   </fills>
@@ -689,10 +833,12 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="2"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Check Cell" xfId="1" builtinId="23"/>
@@ -1013,13 +1159,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AB679F0-980D-D342-B6AB-BF0793C697F5}">
-  <dimension ref="A1:Z41"/>
+  <dimension ref="A1:Z44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F14" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="G37" sqref="G37"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="F43" sqref="F43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="27.6640625" bestFit="1" customWidth="1"/>
@@ -1049,7 +1195,7 @@
     <col min="26" max="26" width="14.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" s="2" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26" s="2" customFormat="1" ht="17" thickBot="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1066,7 +1212,7 @@
         <v>4</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>5</v>
@@ -1129,892 +1275,1021 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:26" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:26" ht="17" thickTop="1">
       <c r="A2">
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F2" t="s">
+        <v>160</v>
+      </c>
+      <c r="G2" t="s">
         <v>31</v>
       </c>
-      <c r="E2" t="s">
-        <v>36</v>
-      </c>
-      <c r="F2" t="s">
-        <v>167</v>
-      </c>
-      <c r="G2" t="s">
-        <v>33</v>
-      </c>
       <c r="X2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26">
       <c r="A3">
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E3" t="s">
+        <v>66</v>
+      </c>
+      <c r="F3" t="s">
+        <v>151</v>
+      </c>
+      <c r="G3" t="s">
         <v>31</v>
       </c>
-      <c r="E3" t="s">
-        <v>68</v>
-      </c>
-      <c r="F3" t="s">
-        <v>157</v>
-      </c>
-      <c r="G3" t="s">
-        <v>33</v>
-      </c>
       <c r="X3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26">
       <c r="A4">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4" t="s">
+        <v>84</v>
+      </c>
+      <c r="F4" t="s">
+        <v>159</v>
+      </c>
+      <c r="G4" t="s">
         <v>31</v>
       </c>
-      <c r="E4" t="s">
-        <v>87</v>
-      </c>
-      <c r="F4" t="s">
-        <v>166</v>
-      </c>
-      <c r="G4" t="s">
-        <v>33</v>
-      </c>
       <c r="X4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26">
       <c r="A5">
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" t="s">
+        <v>75</v>
+      </c>
+      <c r="F5" t="s">
+        <v>150</v>
+      </c>
+      <c r="G5" t="s">
         <v>31</v>
       </c>
-      <c r="E5" t="s">
-        <v>78</v>
-      </c>
-      <c r="F5" t="s">
-        <v>156</v>
-      </c>
-      <c r="G5" t="s">
-        <v>33</v>
-      </c>
       <c r="X5" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26">
       <c r="A6">
         <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C6" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6" t="s">
+        <v>41</v>
+      </c>
+      <c r="F6" t="s">
+        <v>153</v>
+      </c>
+      <c r="G6" t="s">
         <v>31</v>
       </c>
-      <c r="E6" t="s">
-        <v>43</v>
-      </c>
-      <c r="F6" t="s">
-        <v>160</v>
-      </c>
-      <c r="G6" t="s">
-        <v>33</v>
-      </c>
       <c r="X6" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26">
       <c r="A7">
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" t="s">
+        <v>73</v>
+      </c>
+      <c r="F7" t="s">
+        <v>154</v>
+      </c>
+      <c r="G7" t="s">
         <v>31</v>
       </c>
-      <c r="E7" t="s">
-        <v>76</v>
-      </c>
-      <c r="F7" t="s">
-        <v>161</v>
-      </c>
-      <c r="G7" t="s">
-        <v>33</v>
-      </c>
       <c r="X7" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26">
       <c r="A8">
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C8" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" t="s">
+        <v>79</v>
+      </c>
+      <c r="F8" t="s">
+        <v>155</v>
+      </c>
+      <c r="G8" t="s">
         <v>31</v>
       </c>
-      <c r="E8" t="s">
-        <v>82</v>
-      </c>
-      <c r="F8" t="s">
-        <v>162</v>
-      </c>
-      <c r="G8" t="s">
-        <v>33</v>
-      </c>
       <c r="X8" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26">
       <c r="A9">
         <v>2</v>
       </c>
       <c r="B9" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C9" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D9" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9" t="s">
+        <v>162</v>
+      </c>
+      <c r="F9" t="s">
+        <v>156</v>
+      </c>
+      <c r="G9" t="s">
         <v>31</v>
       </c>
-      <c r="E9" t="s">
-        <v>169</v>
-      </c>
-      <c r="F9" t="s">
-        <v>163</v>
-      </c>
-      <c r="G9" t="s">
-        <v>33</v>
-      </c>
       <c r="X9" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26">
       <c r="A10">
         <v>4</v>
       </c>
       <c r="B10" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C10" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D10" t="s">
+        <v>29</v>
+      </c>
+      <c r="E10" t="s">
+        <v>86</v>
+      </c>
+      <c r="F10" t="s">
+        <v>157</v>
+      </c>
+      <c r="G10" t="s">
         <v>31</v>
       </c>
-      <c r="E10" t="s">
-        <v>89</v>
-      </c>
-      <c r="F10" t="s">
-        <v>164</v>
-      </c>
-      <c r="G10" t="s">
-        <v>33</v>
-      </c>
       <c r="X10" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="11" spans="1:26" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" ht="17" thickBot="1">
       <c r="A11">
         <v>12</v>
       </c>
       <c r="B11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11" t="s">
         <v>29</v>
       </c>
-      <c r="C11" t="s">
+      <c r="E11" t="s">
         <v>30</v>
       </c>
-      <c r="D11" t="s">
+      <c r="F11" t="s">
+        <v>158</v>
+      </c>
+      <c r="G11" t="s">
         <v>31</v>
       </c>
-      <c r="E11" t="s">
+      <c r="X11" t="s">
         <v>32</v>
       </c>
-      <c r="F11" t="s">
-        <v>165</v>
-      </c>
-      <c r="G11" t="s">
-        <v>33</v>
-      </c>
-      <c r="X11" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="12" spans="1:26" s="1" customFormat="1" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="1:26" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="12" spans="1:26" s="1" customFormat="1" ht="18" thickTop="1" thickBot="1"/>
+    <row r="13" spans="1:26" ht="17" thickTop="1">
       <c r="A13">
         <v>4</v>
       </c>
       <c r="B13" t="s">
-        <v>69</v>
+        <v>172</v>
       </c>
       <c r="C13" t="s">
-        <v>38</v>
+        <v>174</v>
       </c>
       <c r="D13" t="s">
+        <v>37</v>
+      </c>
+      <c r="E13" t="s">
+        <v>67</v>
+      </c>
+      <c r="F13" t="s">
+        <v>191</v>
+      </c>
+      <c r="G13" t="s">
         <v>39</v>
       </c>
-      <c r="E13" t="s">
-        <v>70</v>
-      </c>
-      <c r="G13" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+    </row>
+    <row r="14" spans="1:26">
       <c r="A14">
         <v>4</v>
       </c>
       <c r="B14" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C14" t="s">
-        <v>38</v>
+        <v>174</v>
       </c>
       <c r="D14" t="s">
+        <v>37</v>
+      </c>
+      <c r="E14" t="s">
+        <v>77</v>
+      </c>
+      <c r="F14" t="s">
+        <v>173</v>
+      </c>
+      <c r="G14" t="s">
         <v>39</v>
       </c>
-      <c r="E14" t="s">
-        <v>80</v>
-      </c>
-      <c r="G14" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="15" spans="1:26" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="15" spans="1:26" ht="17" customHeight="1">
       <c r="A15">
         <v>15</v>
       </c>
       <c r="B15" t="s">
+        <v>35</v>
+      </c>
+      <c r="C15" t="s">
+        <v>36</v>
+      </c>
+      <c r="D15" t="s">
         <v>37</v>
       </c>
-      <c r="C15" t="s">
+      <c r="E15" t="s">
         <v>38</v>
       </c>
-      <c r="D15" t="s">
+      <c r="F15" t="s">
+        <v>175</v>
+      </c>
+      <c r="G15" t="s">
         <v>39</v>
       </c>
-      <c r="E15" t="s">
-        <v>40</v>
-      </c>
-      <c r="G15" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+    </row>
+    <row r="16" spans="1:26">
       <c r="A16">
         <v>4</v>
       </c>
       <c r="B16" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C16" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D16" t="s">
+        <v>37</v>
+      </c>
+      <c r="E16" t="s">
+        <v>81</v>
+      </c>
+      <c r="F16" t="s">
+        <v>176</v>
+      </c>
+      <c r="G16" t="s">
         <v>39</v>
       </c>
-      <c r="E16" t="s">
-        <v>84</v>
-      </c>
-      <c r="G16" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.2">
+    </row>
+    <row r="17" spans="1:26">
       <c r="A17">
         <v>2</v>
       </c>
       <c r="B17" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C17" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D17" t="s">
+        <v>37</v>
+      </c>
+      <c r="E17" t="s">
+        <v>64</v>
+      </c>
+      <c r="F17" t="s">
+        <v>177</v>
+      </c>
+      <c r="G17" t="s">
         <v>39</v>
       </c>
-      <c r="E17" t="s">
-        <v>66</v>
-      </c>
-      <c r="G17" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.2">
+    </row>
+    <row r="18" spans="1:26">
       <c r="A18">
         <v>2</v>
       </c>
       <c r="B18" t="s">
+        <v>42</v>
+      </c>
+      <c r="C18" t="s">
+        <v>43</v>
+      </c>
+      <c r="D18" t="s">
         <v>44</v>
       </c>
-      <c r="C18" t="s">
+      <c r="E18" t="s">
         <v>45</v>
       </c>
-      <c r="D18" t="s">
-        <v>46</v>
-      </c>
-      <c r="E18" t="s">
-        <v>47</v>
+      <c r="F18" t="s">
+        <v>178</v>
       </c>
       <c r="G18" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="19" spans="1:26">
       <c r="A19">
         <v>2</v>
       </c>
       <c r="B19" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C19" t="s">
+        <v>46</v>
+      </c>
+      <c r="D19" t="s">
+        <v>47</v>
+      </c>
+      <c r="E19" t="s">
         <v>48</v>
       </c>
-      <c r="D19" t="s">
+      <c r="F19" t="s">
+        <v>179</v>
+      </c>
+      <c r="G19" t="s">
         <v>49</v>
       </c>
-      <c r="E19" t="s">
+      <c r="X19" t="s">
         <v>50</v>
       </c>
-      <c r="G19" t="s">
-        <v>51</v>
-      </c>
-      <c r="X19" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="20" spans="1:26" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:26" ht="17" thickBot="1">
       <c r="A20">
         <v>2</v>
       </c>
       <c r="B20" t="s">
+        <v>68</v>
+      </c>
+      <c r="C20" t="s">
+        <v>69</v>
+      </c>
+      <c r="D20" t="s">
+        <v>70</v>
+      </c>
+      <c r="E20" t="s">
         <v>71</v>
       </c>
-      <c r="C20" t="s">
-        <v>72</v>
-      </c>
-      <c r="D20" t="s">
-        <v>73</v>
-      </c>
-      <c r="E20" t="s">
-        <v>74</v>
+      <c r="F20" t="s">
+        <v>180</v>
       </c>
       <c r="G20" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="X20" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="21" spans="1:26" s="1" customFormat="1" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="22" spans="1:26" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="21" spans="1:26" s="1" customFormat="1" ht="18" thickTop="1" thickBot="1"/>
+    <row r="22" spans="1:26" ht="17" thickTop="1">
       <c r="A22">
         <v>1</v>
       </c>
       <c r="B22" t="s">
+        <v>51</v>
+      </c>
+      <c r="C22" t="s">
+        <v>52</v>
+      </c>
+      <c r="D22" t="s">
         <v>53</v>
       </c>
-      <c r="C22" t="s">
+      <c r="E22" t="s">
         <v>54</v>
       </c>
-      <c r="D22" t="s">
+      <c r="F22" t="s">
+        <v>161</v>
+      </c>
+      <c r="G22" t="s">
         <v>55</v>
       </c>
-      <c r="E22" t="s">
+      <c r="Z22" t="s">
         <v>56</v>
       </c>
-      <c r="F22" t="s">
-        <v>168</v>
-      </c>
-      <c r="G22" t="s">
-        <v>57</v>
-      </c>
-      <c r="Z22" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.2">
+    </row>
+    <row r="23" spans="1:26">
       <c r="A23">
         <v>2</v>
       </c>
       <c r="B23" t="s">
+        <v>57</v>
+      </c>
+      <c r="C23" t="s">
+        <v>58</v>
+      </c>
+      <c r="D23" t="s">
         <v>59</v>
       </c>
-      <c r="C23" t="s">
+      <c r="E23" t="s">
         <v>60</v>
       </c>
-      <c r="D23" t="s">
+      <c r="F23" t="s">
+        <v>181</v>
+      </c>
+      <c r="G23" t="s">
         <v>61</v>
       </c>
-      <c r="E23" t="s">
-        <v>62</v>
-      </c>
-      <c r="G23" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="24" spans="1:26" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:26" ht="17" thickBot="1">
       <c r="A24">
         <v>4</v>
       </c>
       <c r="B24" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="C24" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="D24" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="E24" t="s">
-        <v>134</v>
+        <v>130</v>
+      </c>
+      <c r="F24" t="s">
+        <v>182</v>
       </c>
       <c r="G24">
         <v>305010013</v>
       </c>
       <c r="S24" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="Y24" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="25" spans="1:26" s="1" customFormat="1" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="26" spans="1:26" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="25" spans="1:26" s="1" customFormat="1" ht="18" thickTop="1" thickBot="1"/>
+    <row r="26" spans="1:26" ht="17" thickTop="1">
       <c r="A26">
         <v>1</v>
       </c>
       <c r="B26" t="s">
+        <v>97</v>
+      </c>
+      <c r="C26" t="s">
+        <v>97</v>
+      </c>
+      <c r="D26" t="s">
+        <v>98</v>
+      </c>
+      <c r="E26" t="s">
+        <v>99</v>
+      </c>
+      <c r="F26" t="s">
+        <v>190</v>
+      </c>
+      <c r="G26" t="s">
         <v>100</v>
       </c>
-      <c r="C26" t="s">
-        <v>100</v>
-      </c>
-      <c r="D26" t="s">
+      <c r="L26" t="s">
+        <v>91</v>
+      </c>
+      <c r="M26" t="s">
         <v>101</v>
       </c>
-      <c r="E26" t="s">
+      <c r="Q26" t="s">
         <v>102</v>
       </c>
-      <c r="G26" t="s">
+      <c r="R26" t="s">
+        <v>97</v>
+      </c>
+      <c r="T26" t="s">
         <v>103</v>
       </c>
-      <c r="L26" t="s">
-        <v>94</v>
-      </c>
-      <c r="M26" t="s">
+      <c r="U26" t="s">
         <v>104</v>
       </c>
-      <c r="Q26" t="s">
-        <v>105</v>
-      </c>
-      <c r="R26" t="s">
-        <v>100</v>
-      </c>
-      <c r="T26" t="s">
-        <v>106</v>
-      </c>
-      <c r="U26" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="27" spans="1:26" x14ac:dyDescent="0.2">
+    </row>
+    <row r="27" spans="1:26">
       <c r="A27">
         <v>1</v>
       </c>
       <c r="B27" t="s">
+        <v>113</v>
+      </c>
+      <c r="C27" t="s">
+        <v>114</v>
+      </c>
+      <c r="D27" t="s">
+        <v>115</v>
+      </c>
+      <c r="E27" t="s">
         <v>116</v>
       </c>
-      <c r="C27" t="s">
+      <c r="F27" t="s">
+        <v>183</v>
+      </c>
+      <c r="G27" t="s">
         <v>117</v>
       </c>
-      <c r="D27" t="s">
-        <v>118</v>
-      </c>
-      <c r="E27" t="s">
-        <v>119</v>
-      </c>
-      <c r="G27" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="28" spans="1:26" x14ac:dyDescent="0.2">
+    </row>
+    <row r="28" spans="1:26">
       <c r="A28">
         <v>2</v>
       </c>
       <c r="B28" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C28" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D28" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="E28" t="s">
-        <v>138</v>
+        <v>134</v>
+      </c>
+      <c r="F28" t="s">
+        <v>184</v>
       </c>
       <c r="G28" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="29" spans="1:26" x14ac:dyDescent="0.2">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="29" spans="1:26">
       <c r="A29">
         <v>2</v>
       </c>
       <c r="B29" t="s">
+        <v>118</v>
+      </c>
+      <c r="C29" t="s">
+        <v>118</v>
+      </c>
+      <c r="D29" t="s">
+        <v>119</v>
+      </c>
+      <c r="E29" t="s">
+        <v>120</v>
+      </c>
+      <c r="F29" t="s">
+        <v>189</v>
+      </c>
+      <c r="G29" t="s">
         <v>121</v>
       </c>
-      <c r="C29" t="s">
-        <v>121</v>
-      </c>
-      <c r="D29" t="s">
-        <v>122</v>
-      </c>
-      <c r="E29" t="s">
-        <v>123</v>
-      </c>
-      <c r="G29" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="30" spans="1:26" x14ac:dyDescent="0.2">
+    </row>
+    <row r="30" spans="1:26">
       <c r="A30">
         <v>1</v>
       </c>
       <c r="B30" t="s">
+        <v>105</v>
+      </c>
+      <c r="C30" t="s">
+        <v>105</v>
+      </c>
+      <c r="D30" t="s">
+        <v>106</v>
+      </c>
+      <c r="E30" t="s">
+        <v>107</v>
+      </c>
+      <c r="F30" t="s">
+        <v>152</v>
+      </c>
+      <c r="G30" t="s">
         <v>108</v>
       </c>
-      <c r="C30" t="s">
-        <v>108</v>
-      </c>
-      <c r="D30" t="s">
+      <c r="L30" t="s">
+        <v>91</v>
+      </c>
+      <c r="M30" t="s">
         <v>109</v>
       </c>
-      <c r="E30" t="s">
+      <c r="Q30" t="s">
         <v>110</v>
       </c>
-      <c r="F30" t="s">
-        <v>158</v>
-      </c>
-      <c r="G30" t="s">
+      <c r="R30" t="s">
+        <v>105</v>
+      </c>
+      <c r="T30" t="s">
         <v>111</v>
       </c>
-      <c r="L30" t="s">
-        <v>94</v>
-      </c>
-      <c r="M30" t="s">
+      <c r="U30" t="s">
         <v>112</v>
       </c>
-      <c r="Q30" t="s">
-        <v>113</v>
-      </c>
-      <c r="R30" t="s">
-        <v>108</v>
-      </c>
-      <c r="T30" t="s">
-        <v>114</v>
-      </c>
-      <c r="U30" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="31" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A31">
+    </row>
+    <row r="31" spans="1:26">
+      <c r="A31" s="3">
         <v>1</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B31" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="G31" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="J31" t="s">
+        <v>122</v>
+      </c>
+      <c r="M31" t="s">
+        <v>124</v>
+      </c>
+      <c r="N31" t="s">
         <v>125</v>
       </c>
-      <c r="C31" t="s">
-        <v>125</v>
-      </c>
-      <c r="D31" t="s">
+      <c r="O31" t="s">
         <v>126</v>
       </c>
-      <c r="E31" t="s">
-        <v>127</v>
-      </c>
-      <c r="G31" t="s">
-        <v>128</v>
-      </c>
-      <c r="J31" t="s">
-        <v>125</v>
-      </c>
-      <c r="M31" t="s">
-        <v>128</v>
-      </c>
-      <c r="N31" t="s">
-        <v>129</v>
-      </c>
-      <c r="O31" t="s">
-        <v>130</v>
-      </c>
       <c r="P31" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="32" spans="1:26" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="32" spans="1:26" ht="17" thickBot="1">
       <c r="A32">
         <v>1</v>
       </c>
       <c r="B32" t="s">
+        <v>87</v>
+      </c>
+      <c r="C32" t="s">
+        <v>87</v>
+      </c>
+      <c r="D32" t="s">
+        <v>88</v>
+      </c>
+      <c r="E32" t="s">
+        <v>89</v>
+      </c>
+      <c r="F32" t="s">
+        <v>185</v>
+      </c>
+      <c r="G32" t="s">
         <v>90</v>
       </c>
-      <c r="C32" t="s">
-        <v>90</v>
-      </c>
-      <c r="D32" t="s">
+      <c r="L32" t="s">
         <v>91</v>
       </c>
-      <c r="E32" t="s">
+      <c r="M32" t="s">
         <v>92</v>
       </c>
-      <c r="G32" t="s">
+      <c r="Q32" t="s">
         <v>93</v>
       </c>
-      <c r="L32" t="s">
+      <c r="R32" t="s">
         <v>94</v>
       </c>
-      <c r="M32" t="s">
+      <c r="T32" t="s">
         <v>95</v>
       </c>
-      <c r="Q32" t="s">
+      <c r="U32" t="s">
         <v>96</v>
       </c>
-      <c r="R32" t="s">
-        <v>97</v>
-      </c>
-      <c r="T32" t="s">
-        <v>98</v>
-      </c>
-      <c r="U32" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="33" spans="1:23" s="1" customFormat="1" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="34" spans="1:23" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="33" spans="1:23" s="1" customFormat="1" ht="18" thickTop="1" thickBot="1"/>
+    <row r="34" spans="1:23" ht="17" thickTop="1">
       <c r="A34">
         <v>1</v>
       </c>
       <c r="B34" t="s">
-        <v>150</v>
+        <v>203</v>
       </c>
       <c r="C34" t="s">
-        <v>151</v>
-      </c>
-      <c r="D34" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="35" spans="1:23">
+      <c r="A35">
+        <v>1</v>
+      </c>
+      <c r="B35" t="s">
+        <v>205</v>
+      </c>
+      <c r="C35" t="s">
+        <v>146</v>
+      </c>
+      <c r="D35" t="s">
+        <v>144</v>
+      </c>
+      <c r="E35" t="s">
+        <v>167</v>
+      </c>
+      <c r="F35" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="36" spans="1:23">
+      <c r="A36">
+        <v>2</v>
+      </c>
+      <c r="B36" t="s">
+        <v>195</v>
+      </c>
+      <c r="C36" t="s">
+        <v>196</v>
+      </c>
+      <c r="D36" t="s">
+        <v>25</v>
+      </c>
+      <c r="E36" t="s">
+        <v>198</v>
+      </c>
+      <c r="F36" t="s">
+        <v>197</v>
+      </c>
+      <c r="G36" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="37" spans="1:23">
+      <c r="A37">
+        <v>2</v>
+      </c>
+      <c r="B37" t="s">
+        <v>199</v>
+      </c>
+      <c r="E37" t="s">
+        <v>198</v>
+      </c>
+      <c r="F37" t="s">
+        <v>200</v>
+      </c>
+      <c r="G37" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="38" spans="1:23">
+      <c r="A38">
+        <v>1</v>
+      </c>
+      <c r="B38" t="s">
+        <v>170</v>
+      </c>
+      <c r="C38" t="s">
+        <v>145</v>
+      </c>
+      <c r="D38" t="s">
+        <v>145</v>
+      </c>
+      <c r="E38" t="s">
+        <v>145</v>
+      </c>
+      <c r="G38" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="39" spans="1:23">
+      <c r="A39">
+        <v>1</v>
+      </c>
+      <c r="B39" t="s">
+        <v>62</v>
+      </c>
+      <c r="C39" t="s">
+        <v>168</v>
+      </c>
+      <c r="D39" t="s">
+        <v>168</v>
+      </c>
+      <c r="E39" t="s">
+        <v>202</v>
+      </c>
+      <c r="G39" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="40" spans="1:23">
+      <c r="A40">
+        <v>12</v>
+      </c>
+      <c r="B40" t="s">
+        <v>164</v>
+      </c>
+      <c r="C40" t="s">
+        <v>165</v>
+      </c>
+      <c r="D40" t="s">
+        <v>166</v>
+      </c>
+      <c r="E40" t="s">
+        <v>131</v>
+      </c>
+      <c r="F40" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="41" spans="1:23">
+      <c r="A41">
+        <v>2</v>
+      </c>
+      <c r="B41" t="s">
+        <v>163</v>
+      </c>
+      <c r="C41" t="s">
+        <v>136</v>
+      </c>
+      <c r="D41" t="s">
+        <v>137</v>
+      </c>
+      <c r="E41" t="s">
+        <v>138</v>
+      </c>
+      <c r="F41" t="s">
+        <v>209</v>
+      </c>
+      <c r="G41" t="s">
+        <v>139</v>
+      </c>
+      <c r="H41">
+        <v>70407906</v>
+      </c>
+      <c r="I41" t="s">
+        <v>140</v>
+      </c>
+      <c r="J41" t="s">
+        <v>141</v>
+      </c>
+      <c r="K41" t="s">
+        <v>142</v>
+      </c>
+      <c r="M41" t="s">
+        <v>139</v>
+      </c>
+      <c r="N41" t="s">
+        <v>125</v>
+      </c>
+      <c r="O41" t="s">
+        <v>143</v>
+      </c>
+      <c r="P41" t="s">
+        <v>141</v>
+      </c>
+      <c r="V41">
+        <v>1674651</v>
+      </c>
+      <c r="W41" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="42" spans="1:23">
+      <c r="A42">
+        <v>2</v>
+      </c>
+      <c r="B42" t="s">
+        <v>206</v>
+      </c>
+      <c r="C42" t="s">
+        <v>207</v>
+      </c>
+      <c r="F42" t="s">
+        <v>210</v>
+      </c>
+      <c r="G42" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="43" spans="1:23">
+      <c r="A43">
+        <v>3</v>
+      </c>
+      <c r="B43" t="s">
+        <v>194</v>
+      </c>
+      <c r="C43" t="s">
+        <v>147</v>
+      </c>
+      <c r="G43" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="44" spans="1:23">
+      <c r="A44">
+        <v>5</v>
+      </c>
+      <c r="B44" t="s">
         <v>148</v>
       </c>
-      <c r="E34" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="35" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A35">
-        <v>2</v>
-      </c>
-      <c r="C35" t="s">
-        <v>25</v>
-      </c>
-      <c r="D35" t="s">
-        <v>26</v>
-      </c>
-      <c r="E35" t="s">
-        <v>27</v>
-      </c>
-      <c r="F35" t="s">
-        <v>159</v>
-      </c>
-      <c r="G35" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="36" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A36">
-        <v>1</v>
-      </c>
-      <c r="B36" t="s">
-        <v>178</v>
-      </c>
-      <c r="C36" t="s">
-        <v>149</v>
-      </c>
-      <c r="D36" t="s">
-        <v>149</v>
-      </c>
-      <c r="E36" t="s">
-        <v>149</v>
-      </c>
-      <c r="G36" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="37" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A37">
-        <v>1</v>
-      </c>
-      <c r="B37" t="s">
-        <v>64</v>
-      </c>
-      <c r="C37" t="s">
-        <v>176</v>
-      </c>
-      <c r="D37" t="s">
-        <v>175</v>
-      </c>
-      <c r="E37" t="s">
-        <v>64</v>
-      </c>
-      <c r="G37" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="38" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A38">
-        <v>12</v>
-      </c>
-      <c r="B38" t="s">
-        <v>171</v>
-      </c>
-      <c r="C38" t="s">
-        <v>172</v>
-      </c>
-      <c r="D38" t="s">
-        <v>173</v>
-      </c>
-      <c r="E38" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="39" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A39">
-        <v>2</v>
-      </c>
-      <c r="B39" t="s">
-        <v>170</v>
-      </c>
-      <c r="C39" t="s">
-        <v>140</v>
-      </c>
-      <c r="D39" t="s">
-        <v>141</v>
-      </c>
-      <c r="E39" t="s">
-        <v>142</v>
-      </c>
-      <c r="G39" t="s">
-        <v>143</v>
-      </c>
-      <c r="H39">
-        <v>70407906</v>
-      </c>
-      <c r="I39" t="s">
-        <v>144</v>
-      </c>
-      <c r="J39" t="s">
-        <v>145</v>
-      </c>
-      <c r="K39" t="s">
-        <v>146</v>
-      </c>
-      <c r="M39" t="s">
-        <v>143</v>
-      </c>
-      <c r="N39" t="s">
-        <v>129</v>
-      </c>
-      <c r="O39" t="s">
+      <c r="C44" t="s">
         <v>147</v>
       </c>
-      <c r="P39" t="s">
-        <v>145</v>
-      </c>
-      <c r="V39">
-        <v>1674651</v>
-      </c>
-      <c r="W39" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="40" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A40">
-        <v>3</v>
-      </c>
-      <c r="B40" t="s">
-        <v>152</v>
-      </c>
-      <c r="C40" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="41" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A41">
-        <v>3</v>
-      </c>
-      <c r="B41" t="s">
-        <v>154</v>
-      </c>
-      <c r="C41" t="s">
-        <v>153</v>
+      <c r="G44" t="s">
+        <v>192</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A17:Z40">
+  <sortState ref="A17:Z43">
     <sortCondition ref="D1"/>
   </sortState>
   <hyperlinks>
     <hyperlink ref="F22" r:id="rId1" xr:uid="{402CF1A8-DD7E-564E-9CE8-C62EC85D5B74}"/>
+    <hyperlink ref="F15" r:id="rId2" tooltip="Click to view additional information on this product." display="https://www.mouser.co.il/ProductDetail/KEMET/C0603C104K3NACAUTO?qs=sGAEpiMZZMs0AnBnWHyRQN7%2fAA2D2lPPcN7f2UDUgHKyFvHfUXZ1hw%3d%3d" xr:uid="{FB1667F1-EC02-E04E-A943-E91B9777E8CF}"/>
+    <hyperlink ref="F16" r:id="rId3" tooltip="Click to view additional information on this product." display="https://www.mouser.co.il/ProductDetail/TDK/CGA3E3X7R1H474K080AB?qs=sGAEpiMZZMs0AnBnWHyRQFv7x1xn%252bYFdI3ebG%252bgQDzEQIVV5hs4lYw%3d%3d" xr:uid="{0CD5736B-9472-AA45-8F8C-8C0B4302980B}"/>
+    <hyperlink ref="F17" r:id="rId4" tooltip="Click to view additional information on this product." display="https://www.mouser.co.il/ProductDetail/Yageo/CC0603KRX5R8BB105?qs=sGAEpiMZZMs0AnBnWHyRQIOKs%2fDjbJvGM2Qk4x9TyVw%3d" xr:uid="{A20C85BD-9628-304E-813C-E6BA0BAF49A2}"/>
+    <hyperlink ref="F18" r:id="rId5" display="https://www.mouser.co.il/ProductDetail/963-TMK316BJ106ML-T" xr:uid="{86B7D85C-803B-7146-B6EC-483F069E3BFD}"/>
+    <hyperlink ref="F19" r:id="rId6" tooltip="Click to view additional information on this product." display="https://www.mouser.co.il/ProductDetail/Panasonic/EEE-FK1H100SR?qs=sGAEpiMZZMtZ1n0r9vR22cpFQt4dfSbqlgP0J7L1P8PoEcpU63uHJg%3d%3d" xr:uid="{0FED0619-D43E-A54D-BBAC-DD54C2E5213E}"/>
+    <hyperlink ref="F20" r:id="rId7" tooltip="Click to view additional information on this product." display="https://www.mouser.co.il/ProductDetail/Panasonic/EEE-FK1H220SR?qs=sGAEpiMZZMtZ1n0r9vR22cpFQt4dfSbq7nKccDuQ3qldDMUlrKwzfQ%3d%3d" xr:uid="{8522919C-743E-0443-9C82-76E6FB9D9CB6}"/>
+    <hyperlink ref="F23" r:id="rId8" tooltip="Click to view additional information on this product." display="https://www.mouser.co.il/ProductDetail/Diodes-Incorporated/1N5819HW-7-F?qs=sGAEpiMZZMtQ8nqTKtFS%2fB%252byFmaLvEBChMEBFjGBzc4%3d" xr:uid="{AD821389-7D71-154E-A95D-8051CDBA1222}"/>
+    <hyperlink ref="F24" r:id="rId9" tooltip="Click to view additional information on this product." display="https://www.mouser.co.il/ProductDetail/ON-Semiconductor/MMBT3904LT1G?qs=sGAEpiMZZMshyDBzk1%2fWi%2fPUgtclNldlheHc%252bMVjFj0%3d" xr:uid="{A3776EA0-BA19-D946-B7E9-58DAF299F4ED}"/>
+    <hyperlink ref="F27" r:id="rId10" tooltip="Click to view additional information on this product." display="https://www.mouser.co.il/ProductDetail/Texas-Instruments/LM4040DIM3-50-NOPB?qs=sGAEpiMZZMuBck1X%252b7j9fFxOFMTVQaIHY0uHQcT5O5c%3d" xr:uid="{F064942C-BB80-C54B-8AB5-4B22B1448B9F}"/>
+    <hyperlink ref="F28" r:id="rId11" tooltip="Click to view additional information on this product." display="https://www.mouser.co.il/ProductDetail/Texas-Instruments/TL072CDR?qs=sGAEpiMZZMtYFXwiBRPs0zzUsTTH4TUq" xr:uid="{384051BC-512A-9A48-B8F7-15FDF7590FDB}"/>
+    <hyperlink ref="F31" r:id="rId12" display="https://www.mouser.co.il/ProductDetail/998-MIC803-26D2VM3TR" xr:uid="{81011A25-B7A6-9944-ADCA-7188FCCE2139}"/>
+    <hyperlink ref="E31" r:id="rId13" display="https://www.mouser.co.il/ProductDetail/998-MIC803-26D2VM3TR" xr:uid="{8191418A-0FC4-0440-8EFC-D3A32EB277E9}"/>
+    <hyperlink ref="F29" r:id="rId14" tooltip="Click to view additional information on this product." display="https://www.mouser.co.il/ProductDetail/Microchip-Technology/MCP6002T-I-SN?qs=sGAEpiMZZMsUzhEcHltCuY6YBL510a4u" xr:uid="{AED12F8F-105E-B347-A4A0-C4813ED7C38C}"/>
+    <hyperlink ref="F26" r:id="rId15" tooltip="Click to view additional information on this product." display="https://www.mouser.co.il/ProductDetail/Texas-Instruments/DAC8565IAPW?qs=sGAEpiMZZMswix2y39yldZvZIVLiL4BNRtsQgzLEDdM%3d" xr:uid="{71D631F5-3878-2B47-A3AE-D00C234BB8FF}"/>
+    <hyperlink ref="F13" r:id="rId16" tooltip="Click to view additional information on this product." display="https://www.mouser.co.il/ProductDetail/KEMET/C0603C220J5GAC7411?qs=sGAEpiMZZMtJOOgnx%2fXJmejeuawQ%252btGe" xr:uid="{E68C9FA3-E7F2-FE47-91C7-DC6D22300FB5}"/>
+    <hyperlink ref="F36" r:id="rId17" display="https://www.mouser.co.il/ProductDetail/612-TL1105SP-250" xr:uid="{2B4B563B-1963-0D41-A19B-940B35388DED}"/>
+    <hyperlink ref="F37" r:id="rId18" display="https://www.mouser.co.il/ProductDetail/612-1R-BK" xr:uid="{9670FC11-3B0F-6D47-B61C-9CC2D1D3B983}"/>
+    <hyperlink ref="F41" r:id="rId19" display="https://www.mouser.co.il/ProductDetail/858-EN11-HSM1BF20" xr:uid="{C1C4F0C5-8028-E140-AAAC-57009FD3B2EE}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/1uO_c_v1_2-BOM.xlsx
+++ b/1uO_c_v1_2-BOM.xlsx
@@ -1,24 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11208"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shayshez/Documents/eagle/projects/1uO_c/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shayshez/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DFA8312-043F-0140-AAAD-21D5E08AE020}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C73DBC4B-71EF-C744-A78E-E88CE03C8597}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540" xr2:uid="{1A515552-B201-574F-9501-0CED91DEEB15}"/>
+    <workbookView xWindow="16780" yWindow="460" windowWidth="16800" windowHeight="20540" xr2:uid="{1A515552-B201-574F-9501-0CED91DEEB15}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_1uO_c_v_1_1" localSheetId="0">Sheet1!$A$1:$AA$38</definedName>
+    <definedName name="_1uO_c_v_1_1" localSheetId="0">Sheet1!$A$2:$AA$39</definedName>
   </definedNames>
-  <calcPr calcId="171027" concurrentCalc="0"/>
+  <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="213">
   <si>
     <t>Qty</t>
   </si>
@@ -584,9 +584,6 @@
   </si>
   <si>
     <t>18p - 22p</t>
-  </si>
-  <si>
-    <t>77-VJ0603A561GXACBC</t>
   </si>
   <si>
     <r>
@@ -603,9 +600,6 @@
   </si>
   <si>
     <t>80-C0603C104K3NAUTO</t>
-  </si>
-  <si>
-    <t>810-CGA3E3X7R1H474KB</t>
   </si>
   <si>
     <t>603-CC603KRX5R8BB105</t>
@@ -726,12 +720,35 @@
   <si>
     <t>Thonk</t>
   </si>
+  <si>
+    <t>581-06035A561G</t>
+  </si>
+  <si>
+    <t>963-UMK107B7474KA-TR</t>
+  </si>
+  <si>
+    <r>
+      <t>https://www.mouser.com/ProjectManager/ProjectDetail.aspx?AccessID=c8782e858b</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <t>Mouser Project:</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="7">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -766,6 +783,19 @@
       <sz val="12"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri (Body)_x0000_"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF004A85"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="5">
@@ -833,12 +863,13 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="2"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Check Cell" xfId="1" builtinId="23"/>
@@ -1159,10 +1190,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AB679F0-980D-D342-B6AB-BF0793C697F5}">
-  <dimension ref="A1:Z44"/>
+  <dimension ref="A1:Z45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="F43" sqref="F43"/>
+    <sheetView tabSelected="1" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1195,118 +1226,100 @@
     <col min="26" max="26" width="14.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" s="2" customFormat="1" ht="17" thickBot="1">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:26">
+      <c r="B1" t="s">
+        <v>212</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="2" spans="1:26" s="2" customFormat="1" ht="17" thickBot="1">
+      <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="M2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="N2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="O2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="P2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="Q2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="R2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="S2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="T2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="U2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="V2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="W1" s="2" t="s">
+      <c r="W2" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="X1" s="2" t="s">
+      <c r="X2" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="Y1" s="2" t="s">
+      <c r="Y2" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="Z1" s="2" t="s">
+      <c r="Z2" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:26" ht="17" thickTop="1">
-      <c r="A2">
-        <v>4</v>
-      </c>
-      <c r="B2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E2" t="s">
-        <v>34</v>
-      </c>
-      <c r="F2" t="s">
-        <v>160</v>
-      </c>
-      <c r="G2" t="s">
-        <v>31</v>
-      </c>
-      <c r="X2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="3" spans="1:26">
+    <row r="3" spans="1:26" ht="17" thickTop="1">
       <c r="A3">
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>65</v>
+        <v>33</v>
       </c>
       <c r="C3" t="s">
         <v>28</v>
@@ -1315,10 +1328,10 @@
         <v>29</v>
       </c>
       <c r="E3" t="s">
-        <v>66</v>
+        <v>34</v>
       </c>
       <c r="F3" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="G3" t="s">
         <v>31</v>
@@ -1329,10 +1342,10 @@
     </row>
     <row r="4" spans="1:26">
       <c r="A4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>83</v>
+        <v>65</v>
       </c>
       <c r="C4" t="s">
         <v>28</v>
@@ -1341,10 +1354,10 @@
         <v>29</v>
       </c>
       <c r="E4" t="s">
-        <v>84</v>
+        <v>66</v>
       </c>
       <c r="F4" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="G4" t="s">
         <v>31</v>
@@ -1355,10 +1368,10 @@
     </row>
     <row r="5" spans="1:26">
       <c r="A5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="C5" t="s">
         <v>28</v>
@@ -1367,10 +1380,10 @@
         <v>29</v>
       </c>
       <c r="E5" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="F5" t="s">
-        <v>150</v>
+        <v>159</v>
       </c>
       <c r="G5" t="s">
         <v>31</v>
@@ -1384,7 +1397,7 @@
         <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>40</v>
+        <v>74</v>
       </c>
       <c r="C6" t="s">
         <v>28</v>
@@ -1393,10 +1406,10 @@
         <v>29</v>
       </c>
       <c r="E6" t="s">
-        <v>41</v>
+        <v>75</v>
       </c>
       <c r="F6" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="G6" t="s">
         <v>31</v>
@@ -1407,10 +1420,10 @@
     </row>
     <row r="7" spans="1:26">
       <c r="A7">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B7" t="s">
-        <v>72</v>
+        <v>40</v>
       </c>
       <c r="C7" t="s">
         <v>28</v>
@@ -1419,10 +1432,10 @@
         <v>29</v>
       </c>
       <c r="E7" t="s">
-        <v>73</v>
+        <v>41</v>
       </c>
       <c r="F7" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G7" t="s">
         <v>31</v>
@@ -1433,10 +1446,10 @@
     </row>
     <row r="8" spans="1:26">
       <c r="A8">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B8" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="C8" t="s">
         <v>28</v>
@@ -1445,10 +1458,10 @@
         <v>29</v>
       </c>
       <c r="E8" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="F8" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="G8" t="s">
         <v>31</v>
@@ -1459,10 +1472,10 @@
     </row>
     <row r="9" spans="1:26">
       <c r="A9">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C9" t="s">
         <v>28</v>
@@ -1471,10 +1484,10 @@
         <v>29</v>
       </c>
       <c r="E9" t="s">
-        <v>162</v>
+        <v>79</v>
       </c>
       <c r="F9" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G9" t="s">
         <v>31</v>
@@ -1485,10 +1498,10 @@
     </row>
     <row r="10" spans="1:26">
       <c r="A10">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B10" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C10" t="s">
         <v>28</v>
@@ -1497,10 +1510,10 @@
         <v>29</v>
       </c>
       <c r="E10" t="s">
-        <v>86</v>
+        <v>162</v>
       </c>
       <c r="F10" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G10" t="s">
         <v>31</v>
@@ -1509,12 +1522,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:26" ht="17" thickBot="1">
+    <row r="11" spans="1:26">
       <c r="A11">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="B11" t="s">
-        <v>27</v>
+        <v>85</v>
       </c>
       <c r="C11" t="s">
         <v>28</v>
@@ -1523,10 +1536,10 @@
         <v>29</v>
       </c>
       <c r="E11" t="s">
-        <v>30</v>
+        <v>86</v>
       </c>
       <c r="F11" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G11" t="s">
         <v>31</v>
@@ -1535,82 +1548,85 @@
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="1:26" s="1" customFormat="1" ht="18" thickTop="1" thickBot="1"/>
-    <row r="13" spans="1:26" ht="17" thickTop="1">
-      <c r="A13">
-        <v>4</v>
-      </c>
-      <c r="B13" t="s">
-        <v>172</v>
-      </c>
-      <c r="C13" t="s">
-        <v>174</v>
-      </c>
-      <c r="D13" t="s">
-        <v>37</v>
-      </c>
-      <c r="E13" t="s">
-        <v>67</v>
-      </c>
-      <c r="F13" t="s">
-        <v>191</v>
-      </c>
-      <c r="G13" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="14" spans="1:26">
+    <row r="12" spans="1:26" ht="17" thickBot="1">
+      <c r="A12">
+        <v>12</v>
+      </c>
+      <c r="B12" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" t="s">
+        <v>28</v>
+      </c>
+      <c r="D12" t="s">
+        <v>29</v>
+      </c>
+      <c r="E12" t="s">
+        <v>30</v>
+      </c>
+      <c r="F12" t="s">
+        <v>158</v>
+      </c>
+      <c r="G12" t="s">
+        <v>31</v>
+      </c>
+      <c r="X12" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" s="1" customFormat="1" ht="18" thickTop="1" thickBot="1"/>
+    <row r="14" spans="1:26" ht="17" thickTop="1">
       <c r="A14">
         <v>4</v>
       </c>
       <c r="B14" t="s">
-        <v>76</v>
+        <v>172</v>
       </c>
       <c r="C14" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D14" t="s">
         <v>37</v>
       </c>
       <c r="E14" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="F14" t="s">
-        <v>173</v>
+        <v>189</v>
       </c>
       <c r="G14" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="15" spans="1:26" ht="17" customHeight="1">
+    <row r="15" spans="1:26">
       <c r="A15">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="B15" t="s">
-        <v>35</v>
+        <v>76</v>
       </c>
       <c r="C15" t="s">
-        <v>36</v>
+        <v>173</v>
       </c>
       <c r="D15" t="s">
         <v>37</v>
       </c>
       <c r="E15" t="s">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="F15" t="s">
-        <v>175</v>
+        <v>209</v>
       </c>
       <c r="G15" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="16" spans="1:26">
+    <row r="16" spans="1:26" ht="17" customHeight="1">
       <c r="A16">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>80</v>
+        <v>35</v>
       </c>
       <c r="C16" t="s">
         <v>36</v>
@@ -1619,10 +1635,10 @@
         <v>37</v>
       </c>
       <c r="E16" t="s">
-        <v>81</v>
+        <v>38</v>
       </c>
       <c r="F16" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="G16" t="s">
         <v>39</v>
@@ -1630,10 +1646,10 @@
     </row>
     <row r="17" spans="1:26">
       <c r="A17">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B17" t="s">
-        <v>63</v>
+        <v>80</v>
       </c>
       <c r="C17" t="s">
         <v>36</v>
@@ -1642,10 +1658,10 @@
         <v>37</v>
       </c>
       <c r="E17" t="s">
-        <v>64</v>
+        <v>81</v>
       </c>
       <c r="F17" t="s">
-        <v>177</v>
+        <v>210</v>
       </c>
       <c r="G17" t="s">
         <v>39</v>
@@ -1656,19 +1672,19 @@
         <v>2</v>
       </c>
       <c r="B18" t="s">
-        <v>42</v>
+        <v>63</v>
       </c>
       <c r="C18" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="D18" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="E18" t="s">
-        <v>45</v>
+        <v>64</v>
       </c>
       <c r="F18" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="G18" t="s">
         <v>39</v>
@@ -1682,42 +1698,39 @@
         <v>42</v>
       </c>
       <c r="C19" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D19" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E19" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="F19" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="G19" t="s">
-        <v>49</v>
-      </c>
-      <c r="X19" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="20" spans="1:26" ht="17" thickBot="1">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="20" spans="1:26">
       <c r="A20">
         <v>2</v>
       </c>
       <c r="B20" t="s">
-        <v>68</v>
+        <v>42</v>
       </c>
       <c r="C20" t="s">
-        <v>69</v>
+        <v>46</v>
       </c>
       <c r="D20" t="s">
-        <v>70</v>
+        <v>47</v>
       </c>
       <c r="E20" t="s">
-        <v>71</v>
+        <v>48</v>
       </c>
       <c r="F20" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="G20" t="s">
         <v>49</v>
@@ -1726,171 +1739,174 @@
         <v>50</v>
       </c>
     </row>
-    <row r="21" spans="1:26" s="1" customFormat="1" ht="18" thickTop="1" thickBot="1"/>
-    <row r="22" spans="1:26" ht="17" thickTop="1">
-      <c r="A22">
+    <row r="21" spans="1:26" ht="17" thickBot="1">
+      <c r="A21">
+        <v>2</v>
+      </c>
+      <c r="B21" t="s">
+        <v>68</v>
+      </c>
+      <c r="C21" t="s">
+        <v>69</v>
+      </c>
+      <c r="D21" t="s">
+        <v>70</v>
+      </c>
+      <c r="E21" t="s">
+        <v>71</v>
+      </c>
+      <c r="F21" t="s">
+        <v>178</v>
+      </c>
+      <c r="G21" t="s">
+        <v>49</v>
+      </c>
+      <c r="X21" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="22" spans="1:26" s="1" customFormat="1" ht="18" thickTop="1" thickBot="1"/>
+    <row r="23" spans="1:26" ht="17" thickTop="1">
+      <c r="A23">
         <v>1</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B23" t="s">
         <v>51</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C23" t="s">
         <v>52</v>
       </c>
-      <c r="D22" t="s">
+      <c r="D23" t="s">
         <v>53</v>
       </c>
-      <c r="E22" t="s">
+      <c r="E23" t="s">
         <v>54</v>
       </c>
-      <c r="F22" t="s">
+      <c r="F23" t="s">
         <v>161</v>
       </c>
-      <c r="G22" t="s">
+      <c r="G23" t="s">
         <v>55</v>
       </c>
-      <c r="Z22" t="s">
+      <c r="Z23" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="23" spans="1:26">
-      <c r="A23">
+    <row r="24" spans="1:26">
+      <c r="A24">
         <v>2</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B24" t="s">
         <v>57</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C24" t="s">
         <v>58</v>
       </c>
-      <c r="D23" t="s">
+      <c r="D24" t="s">
         <v>59</v>
       </c>
-      <c r="E23" t="s">
+      <c r="E24" t="s">
         <v>60</v>
       </c>
-      <c r="F23" t="s">
-        <v>181</v>
-      </c>
-      <c r="G23" t="s">
+      <c r="F24" t="s">
+        <v>179</v>
+      </c>
+      <c r="G24" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="24" spans="1:26" ht="17" thickBot="1">
-      <c r="A24">
+    <row r="25" spans="1:26" ht="17" thickBot="1">
+      <c r="A25">
         <v>4</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B25" t="s">
         <v>127</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C25" t="s">
         <v>128</v>
       </c>
-      <c r="D24" t="s">
+      <c r="D25" t="s">
         <v>129</v>
       </c>
-      <c r="E24" t="s">
+      <c r="E25" t="s">
         <v>130</v>
       </c>
-      <c r="F24" t="s">
-        <v>182</v>
-      </c>
-      <c r="G24">
+      <c r="F25" t="s">
+        <v>180</v>
+      </c>
+      <c r="G25">
         <v>305010013</v>
       </c>
-      <c r="S24" t="s">
+      <c r="S25" t="s">
         <v>127</v>
       </c>
-      <c r="Y24" t="s">
+      <c r="Y25" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="25" spans="1:26" s="1" customFormat="1" ht="18" thickTop="1" thickBot="1"/>
-    <row r="26" spans="1:26" ht="17" thickTop="1">
-      <c r="A26">
-        <v>1</v>
-      </c>
-      <c r="B26" t="s">
-        <v>97</v>
-      </c>
-      <c r="C26" t="s">
-        <v>97</v>
-      </c>
-      <c r="D26" t="s">
-        <v>98</v>
-      </c>
-      <c r="E26" t="s">
-        <v>99</v>
-      </c>
-      <c r="F26" t="s">
-        <v>190</v>
-      </c>
-      <c r="G26" t="s">
-        <v>100</v>
-      </c>
-      <c r="L26" t="s">
-        <v>91</v>
-      </c>
-      <c r="M26" t="s">
-        <v>101</v>
-      </c>
-      <c r="Q26" t="s">
-        <v>102</v>
-      </c>
-      <c r="R26" t="s">
-        <v>97</v>
-      </c>
-      <c r="T26" t="s">
-        <v>103</v>
-      </c>
-      <c r="U26" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="27" spans="1:26">
+    <row r="26" spans="1:26" s="1" customFormat="1" ht="18" thickTop="1" thickBot="1"/>
+    <row r="27" spans="1:26" ht="17" thickTop="1">
       <c r="A27">
         <v>1</v>
       </c>
       <c r="B27" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="C27" t="s">
-        <v>114</v>
+        <v>97</v>
       </c>
       <c r="D27" t="s">
-        <v>115</v>
+        <v>98</v>
       </c>
       <c r="E27" t="s">
-        <v>116</v>
+        <v>99</v>
       </c>
       <c r="F27" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="G27" t="s">
-        <v>117</v>
+        <v>100</v>
+      </c>
+      <c r="L27" t="s">
+        <v>91</v>
+      </c>
+      <c r="M27" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>102</v>
+      </c>
+      <c r="R27" t="s">
+        <v>97</v>
+      </c>
+      <c r="T27" t="s">
+        <v>103</v>
+      </c>
+      <c r="U27" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="28" spans="1:26">
       <c r="A28">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B28" t="s">
-        <v>132</v>
+        <v>113</v>
       </c>
       <c r="C28" t="s">
-        <v>132</v>
+        <v>114</v>
       </c>
       <c r="D28" t="s">
-        <v>133</v>
+        <v>115</v>
       </c>
       <c r="E28" t="s">
-        <v>134</v>
+        <v>116</v>
       </c>
       <c r="F28" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="G28" t="s">
-        <v>135</v>
+        <v>117</v>
       </c>
     </row>
     <row r="29" spans="1:26">
@@ -1898,197 +1914,197 @@
         <v>2</v>
       </c>
       <c r="B29" t="s">
-        <v>118</v>
+        <v>132</v>
       </c>
       <c r="C29" t="s">
-        <v>118</v>
+        <v>132</v>
       </c>
       <c r="D29" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="E29" t="s">
-        <v>120</v>
+        <v>134</v>
       </c>
       <c r="F29" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="G29" t="s">
-        <v>121</v>
+        <v>135</v>
       </c>
     </row>
     <row r="30" spans="1:26">
       <c r="A30">
+        <v>2</v>
+      </c>
+      <c r="B30" t="s">
+        <v>118</v>
+      </c>
+      <c r="C30" t="s">
+        <v>118</v>
+      </c>
+      <c r="D30" t="s">
+        <v>119</v>
+      </c>
+      <c r="E30" t="s">
+        <v>120</v>
+      </c>
+      <c r="F30" t="s">
+        <v>187</v>
+      </c>
+      <c r="G30" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="31" spans="1:26">
+      <c r="A31">
         <v>1</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B31" t="s">
         <v>105</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C31" t="s">
         <v>105</v>
       </c>
-      <c r="D30" t="s">
+      <c r="D31" t="s">
         <v>106</v>
       </c>
-      <c r="E30" t="s">
+      <c r="E31" t="s">
         <v>107</v>
       </c>
-      <c r="F30" t="s">
+      <c r="F31" t="s">
         <v>152</v>
       </c>
-      <c r="G30" t="s">
+      <c r="G31" t="s">
         <v>108</v>
       </c>
-      <c r="L30" t="s">
+      <c r="L31" t="s">
         <v>91</v>
       </c>
-      <c r="M30" t="s">
+      <c r="M31" t="s">
         <v>109</v>
       </c>
-      <c r="Q30" t="s">
+      <c r="Q31" t="s">
         <v>110</v>
       </c>
-      <c r="R30" t="s">
+      <c r="R31" t="s">
         <v>105</v>
       </c>
-      <c r="T30" t="s">
+      <c r="T31" t="s">
         <v>111</v>
       </c>
-      <c r="U30" t="s">
+      <c r="U31" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="31" spans="1:26">
-      <c r="A31" s="3">
+    <row r="32" spans="1:26">
+      <c r="A32" s="3">
         <v>1</v>
       </c>
-      <c r="B31" s="3" t="s">
+      <c r="B32" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="C31" s="3" t="s">
+      <c r="C32" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="D31" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="E31" s="3" t="s">
+      <c r="D32" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="E32" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="F31" s="3" t="s">
+      <c r="F32" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="G32" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="G31" s="4" t="s">
-        <v>188</v>
-      </c>
-      <c r="J31" t="s">
+      <c r="J32" t="s">
         <v>122</v>
       </c>
-      <c r="M31" t="s">
+      <c r="M32" t="s">
         <v>124</v>
       </c>
-      <c r="N31" t="s">
+      <c r="N32" t="s">
         <v>125</v>
       </c>
-      <c r="O31" t="s">
+      <c r="O32" t="s">
         <v>126</v>
       </c>
-      <c r="P31" t="s">
+      <c r="P32" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="32" spans="1:26" ht="17" thickBot="1">
-      <c r="A32">
+    <row r="33" spans="1:23" ht="17" thickBot="1">
+      <c r="A33">
         <v>1</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B33" t="s">
         <v>87</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C33" t="s">
         <v>87</v>
       </c>
-      <c r="D32" t="s">
+      <c r="D33" t="s">
         <v>88</v>
       </c>
-      <c r="E32" t="s">
+      <c r="E33" t="s">
         <v>89</v>
       </c>
-      <c r="F32" t="s">
-        <v>185</v>
-      </c>
-      <c r="G32" t="s">
+      <c r="F33" t="s">
+        <v>183</v>
+      </c>
+      <c r="G33" t="s">
         <v>90</v>
       </c>
-      <c r="L32" t="s">
+      <c r="L33" t="s">
         <v>91</v>
       </c>
-      <c r="M32" t="s">
+      <c r="M33" t="s">
         <v>92</v>
       </c>
-      <c r="Q32" t="s">
+      <c r="Q33" t="s">
         <v>93</v>
       </c>
-      <c r="R32" t="s">
+      <c r="R33" t="s">
         <v>94</v>
       </c>
-      <c r="T32" t="s">
+      <c r="T33" t="s">
         <v>95</v>
       </c>
-      <c r="U32" t="s">
+      <c r="U33" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="33" spans="1:23" s="1" customFormat="1" ht="18" thickTop="1" thickBot="1"/>
-    <row r="34" spans="1:23" ht="17" thickTop="1">
-      <c r="A34">
-        <v>1</v>
-      </c>
-      <c r="B34" t="s">
-        <v>203</v>
-      </c>
-      <c r="C34" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="35" spans="1:23">
+    <row r="34" spans="1:23" s="1" customFormat="1" ht="18" thickTop="1" thickBot="1"/>
+    <row r="35" spans="1:23" ht="17" thickTop="1">
       <c r="A35">
         <v>1</v>
       </c>
       <c r="B35" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="C35" t="s">
-        <v>146</v>
-      </c>
-      <c r="D35" t="s">
-        <v>144</v>
-      </c>
-      <c r="E35" t="s">
-        <v>167</v>
-      </c>
-      <c r="F35" t="s">
-        <v>167</v>
+        <v>202</v>
       </c>
     </row>
     <row r="36" spans="1:23">
       <c r="A36">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B36" t="s">
-        <v>195</v>
+        <v>203</v>
       </c>
       <c r="C36" t="s">
-        <v>196</v>
+        <v>146</v>
       </c>
       <c r="D36" t="s">
-        <v>25</v>
+        <v>144</v>
       </c>
       <c r="E36" t="s">
-        <v>198</v>
+        <v>167</v>
       </c>
       <c r="F36" t="s">
-        <v>197</v>
-      </c>
-      <c r="G36" t="s">
-        <v>26</v>
+        <v>167</v>
       </c>
     </row>
     <row r="37" spans="1:23">
@@ -2096,36 +2112,39 @@
         <v>2</v>
       </c>
       <c r="B37" t="s">
-        <v>199</v>
+        <v>193</v>
+      </c>
+      <c r="C37" t="s">
+        <v>194</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
       </c>
       <c r="E37" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="F37" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="G37" t="s">
-        <v>201</v>
+        <v>26</v>
       </c>
     </row>
     <row r="38" spans="1:23">
       <c r="A38">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B38" t="s">
-        <v>170</v>
-      </c>
-      <c r="C38" t="s">
-        <v>145</v>
-      </c>
-      <c r="D38" t="s">
-        <v>145</v>
+        <v>197</v>
       </c>
       <c r="E38" t="s">
-        <v>145</v>
+        <v>196</v>
+      </c>
+      <c r="F38" t="s">
+        <v>198</v>
       </c>
       <c r="G38" t="s">
-        <v>171</v>
+        <v>199</v>
       </c>
     </row>
     <row r="39" spans="1:23">
@@ -2133,92 +2152,59 @@
         <v>1</v>
       </c>
       <c r="B39" t="s">
-        <v>62</v>
+        <v>170</v>
       </c>
       <c r="C39" t="s">
-        <v>168</v>
+        <v>145</v>
       </c>
       <c r="D39" t="s">
-        <v>168</v>
+        <v>145</v>
       </c>
       <c r="E39" t="s">
-        <v>202</v>
+        <v>145</v>
       </c>
       <c r="G39" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="40" spans="1:23">
       <c r="A40">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="B40" t="s">
-        <v>164</v>
+        <v>62</v>
       </c>
       <c r="C40" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="D40" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="E40" t="s">
-        <v>131</v>
-      </c>
-      <c r="F40" t="s">
-        <v>210</v>
+        <v>200</v>
+      </c>
+      <c r="G40" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="41" spans="1:23">
       <c r="A41">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="B41" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C41" t="s">
-        <v>136</v>
+        <v>165</v>
       </c>
       <c r="D41" t="s">
-        <v>137</v>
+        <v>166</v>
       </c>
       <c r="E41" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="F41" t="s">
-        <v>209</v>
-      </c>
-      <c r="G41" t="s">
-        <v>139</v>
-      </c>
-      <c r="H41">
-        <v>70407906</v>
-      </c>
-      <c r="I41" t="s">
-        <v>140</v>
-      </c>
-      <c r="J41" t="s">
-        <v>141</v>
-      </c>
-      <c r="K41" t="s">
-        <v>142</v>
-      </c>
-      <c r="M41" t="s">
-        <v>139</v>
-      </c>
-      <c r="N41" t="s">
-        <v>125</v>
-      </c>
-      <c r="O41" t="s">
-        <v>143</v>
-      </c>
-      <c r="P41" t="s">
-        <v>141</v>
-      </c>
-      <c r="V41">
-        <v>1674651</v>
-      </c>
-      <c r="W41" t="s">
-        <v>142</v>
+        <v>208</v>
       </c>
     </row>
     <row r="42" spans="1:23">
@@ -2226,70 +2212,123 @@
         <v>2</v>
       </c>
       <c r="B42" t="s">
-        <v>206</v>
+        <v>163</v>
       </c>
       <c r="C42" t="s">
+        <v>136</v>
+      </c>
+      <c r="D42" t="s">
+        <v>137</v>
+      </c>
+      <c r="E42" t="s">
+        <v>138</v>
+      </c>
+      <c r="F42" t="s">
         <v>207</v>
       </c>
-      <c r="F42" t="s">
-        <v>210</v>
-      </c>
       <c r="G42" t="s">
-        <v>208</v>
+        <v>139</v>
+      </c>
+      <c r="H42">
+        <v>70407906</v>
+      </c>
+      <c r="I42" t="s">
+        <v>140</v>
+      </c>
+      <c r="J42" t="s">
+        <v>141</v>
+      </c>
+      <c r="K42" t="s">
+        <v>142</v>
+      </c>
+      <c r="M42" t="s">
+        <v>139</v>
+      </c>
+      <c r="N42" t="s">
+        <v>125</v>
+      </c>
+      <c r="O42" t="s">
+        <v>143</v>
+      </c>
+      <c r="P42" t="s">
+        <v>141</v>
+      </c>
+      <c r="V42">
+        <v>1674651</v>
+      </c>
+      <c r="W42" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="43" spans="1:23">
       <c r="A43">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B43" t="s">
-        <v>194</v>
+        <v>204</v>
       </c>
       <c r="C43" t="s">
-        <v>147</v>
+        <v>205</v>
+      </c>
+      <c r="F43" t="s">
+        <v>208</v>
       </c>
       <c r="G43" t="s">
-        <v>193</v>
+        <v>206</v>
       </c>
     </row>
     <row r="44" spans="1:23">
       <c r="A44">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B44" t="s">
-        <v>148</v>
+        <v>192</v>
       </c>
       <c r="C44" t="s">
         <v>147</v>
       </c>
       <c r="G44" t="s">
-        <v>192</v>
+        <v>191</v>
+      </c>
+    </row>
+    <row r="45" spans="1:23">
+      <c r="A45">
+        <v>5</v>
+      </c>
+      <c r="B45" t="s">
+        <v>148</v>
+      </c>
+      <c r="C45" t="s">
+        <v>147</v>
+      </c>
+      <c r="G45" t="s">
+        <v>190</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A17:Z43">
-    <sortCondition ref="D1"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A18:Z44">
+    <sortCondition ref="D2"/>
   </sortState>
   <hyperlinks>
-    <hyperlink ref="F22" r:id="rId1" xr:uid="{402CF1A8-DD7E-564E-9CE8-C62EC85D5B74}"/>
-    <hyperlink ref="F15" r:id="rId2" tooltip="Click to view additional information on this product." display="https://www.mouser.co.il/ProductDetail/KEMET/C0603C104K3NACAUTO?qs=sGAEpiMZZMs0AnBnWHyRQN7%2fAA2D2lPPcN7f2UDUgHKyFvHfUXZ1hw%3d%3d" xr:uid="{FB1667F1-EC02-E04E-A943-E91B9777E8CF}"/>
-    <hyperlink ref="F16" r:id="rId3" tooltip="Click to view additional information on this product." display="https://www.mouser.co.il/ProductDetail/TDK/CGA3E3X7R1H474K080AB?qs=sGAEpiMZZMs0AnBnWHyRQFv7x1xn%252bYFdI3ebG%252bgQDzEQIVV5hs4lYw%3d%3d" xr:uid="{0CD5736B-9472-AA45-8F8C-8C0B4302980B}"/>
-    <hyperlink ref="F17" r:id="rId4" tooltip="Click to view additional information on this product." display="https://www.mouser.co.il/ProductDetail/Yageo/CC0603KRX5R8BB105?qs=sGAEpiMZZMs0AnBnWHyRQIOKs%2fDjbJvGM2Qk4x9TyVw%3d" xr:uid="{A20C85BD-9628-304E-813C-E6BA0BAF49A2}"/>
-    <hyperlink ref="F18" r:id="rId5" display="https://www.mouser.co.il/ProductDetail/963-TMK316BJ106ML-T" xr:uid="{86B7D85C-803B-7146-B6EC-483F069E3BFD}"/>
-    <hyperlink ref="F19" r:id="rId6" tooltip="Click to view additional information on this product." display="https://www.mouser.co.il/ProductDetail/Panasonic/EEE-FK1H100SR?qs=sGAEpiMZZMtZ1n0r9vR22cpFQt4dfSbqlgP0J7L1P8PoEcpU63uHJg%3d%3d" xr:uid="{0FED0619-D43E-A54D-BBAC-DD54C2E5213E}"/>
-    <hyperlink ref="F20" r:id="rId7" tooltip="Click to view additional information on this product." display="https://www.mouser.co.il/ProductDetail/Panasonic/EEE-FK1H220SR?qs=sGAEpiMZZMtZ1n0r9vR22cpFQt4dfSbq7nKccDuQ3qldDMUlrKwzfQ%3d%3d" xr:uid="{8522919C-743E-0443-9C82-76E6FB9D9CB6}"/>
-    <hyperlink ref="F23" r:id="rId8" tooltip="Click to view additional information on this product." display="https://www.mouser.co.il/ProductDetail/Diodes-Incorporated/1N5819HW-7-F?qs=sGAEpiMZZMtQ8nqTKtFS%2fB%252byFmaLvEBChMEBFjGBzc4%3d" xr:uid="{AD821389-7D71-154E-A95D-8051CDBA1222}"/>
-    <hyperlink ref="F24" r:id="rId9" tooltip="Click to view additional information on this product." display="https://www.mouser.co.il/ProductDetail/ON-Semiconductor/MMBT3904LT1G?qs=sGAEpiMZZMshyDBzk1%2fWi%2fPUgtclNldlheHc%252bMVjFj0%3d" xr:uid="{A3776EA0-BA19-D946-B7E9-58DAF299F4ED}"/>
-    <hyperlink ref="F27" r:id="rId10" tooltip="Click to view additional information on this product." display="https://www.mouser.co.il/ProductDetail/Texas-Instruments/LM4040DIM3-50-NOPB?qs=sGAEpiMZZMuBck1X%252b7j9fFxOFMTVQaIHY0uHQcT5O5c%3d" xr:uid="{F064942C-BB80-C54B-8AB5-4B22B1448B9F}"/>
-    <hyperlink ref="F28" r:id="rId11" tooltip="Click to view additional information on this product." display="https://www.mouser.co.il/ProductDetail/Texas-Instruments/TL072CDR?qs=sGAEpiMZZMtYFXwiBRPs0zzUsTTH4TUq" xr:uid="{384051BC-512A-9A48-B8F7-15FDF7590FDB}"/>
-    <hyperlink ref="F31" r:id="rId12" display="https://www.mouser.co.il/ProductDetail/998-MIC803-26D2VM3TR" xr:uid="{81011A25-B7A6-9944-ADCA-7188FCCE2139}"/>
-    <hyperlink ref="E31" r:id="rId13" display="https://www.mouser.co.il/ProductDetail/998-MIC803-26D2VM3TR" xr:uid="{8191418A-0FC4-0440-8EFC-D3A32EB277E9}"/>
-    <hyperlink ref="F29" r:id="rId14" tooltip="Click to view additional information on this product." display="https://www.mouser.co.il/ProductDetail/Microchip-Technology/MCP6002T-I-SN?qs=sGAEpiMZZMsUzhEcHltCuY6YBL510a4u" xr:uid="{AED12F8F-105E-B347-A4A0-C4813ED7C38C}"/>
-    <hyperlink ref="F26" r:id="rId15" tooltip="Click to view additional information on this product." display="https://www.mouser.co.il/ProductDetail/Texas-Instruments/DAC8565IAPW?qs=sGAEpiMZZMswix2y39yldZvZIVLiL4BNRtsQgzLEDdM%3d" xr:uid="{71D631F5-3878-2B47-A3AE-D00C234BB8FF}"/>
-    <hyperlink ref="F13" r:id="rId16" tooltip="Click to view additional information on this product." display="https://www.mouser.co.il/ProductDetail/KEMET/C0603C220J5GAC7411?qs=sGAEpiMZZMtJOOgnx%2fXJmejeuawQ%252btGe" xr:uid="{E68C9FA3-E7F2-FE47-91C7-DC6D22300FB5}"/>
-    <hyperlink ref="F36" r:id="rId17" display="https://www.mouser.co.il/ProductDetail/612-TL1105SP-250" xr:uid="{2B4B563B-1963-0D41-A19B-940B35388DED}"/>
-    <hyperlink ref="F37" r:id="rId18" display="https://www.mouser.co.il/ProductDetail/612-1R-BK" xr:uid="{9670FC11-3B0F-6D47-B61C-9CC2D1D3B983}"/>
-    <hyperlink ref="F41" r:id="rId19" display="https://www.mouser.co.il/ProductDetail/858-EN11-HSM1BF20" xr:uid="{C1C4F0C5-8028-E140-AAAC-57009FD3B2EE}"/>
+    <hyperlink ref="F23" r:id="rId1" xr:uid="{402CF1A8-DD7E-564E-9CE8-C62EC85D5B74}"/>
+    <hyperlink ref="F16" r:id="rId2" tooltip="Click to view additional information on this product." display="https://www.mouser.co.il/ProductDetail/KEMET/C0603C104K3NACAUTO?qs=sGAEpiMZZMs0AnBnWHyRQN7%2fAA2D2lPPcN7f2UDUgHKyFvHfUXZ1hw%3d%3d" xr:uid="{FB1667F1-EC02-E04E-A943-E91B9777E8CF}"/>
+    <hyperlink ref="F17" r:id="rId3" tooltip="Click to view additional information on this product." display="https://www.mouser.co.il/ProductDetail/TDK/CGA3E3X7R1H474K080AB?qs=sGAEpiMZZMs0AnBnWHyRQFv7x1xn%252bYFdI3ebG%252bgQDzEQIVV5hs4lYw%3d%3d" xr:uid="{0CD5736B-9472-AA45-8F8C-8C0B4302980B}"/>
+    <hyperlink ref="F18" r:id="rId4" tooltip="Click to view additional information on this product." display="https://www.mouser.co.il/ProductDetail/Yageo/CC0603KRX5R8BB105?qs=sGAEpiMZZMs0AnBnWHyRQIOKs%2fDjbJvGM2Qk4x9TyVw%3d" xr:uid="{A20C85BD-9628-304E-813C-E6BA0BAF49A2}"/>
+    <hyperlink ref="F19" r:id="rId5" display="https://www.mouser.co.il/ProductDetail/963-TMK316BJ106ML-T" xr:uid="{86B7D85C-803B-7146-B6EC-483F069E3BFD}"/>
+    <hyperlink ref="F20" r:id="rId6" tooltip="Click to view additional information on this product." display="https://www.mouser.co.il/ProductDetail/Panasonic/EEE-FK1H100SR?qs=sGAEpiMZZMtZ1n0r9vR22cpFQt4dfSbqlgP0J7L1P8PoEcpU63uHJg%3d%3d" xr:uid="{0FED0619-D43E-A54D-BBAC-DD54C2E5213E}"/>
+    <hyperlink ref="F21" r:id="rId7" tooltip="Click to view additional information on this product." display="https://www.mouser.co.il/ProductDetail/Panasonic/EEE-FK1H220SR?qs=sGAEpiMZZMtZ1n0r9vR22cpFQt4dfSbq7nKccDuQ3qldDMUlrKwzfQ%3d%3d" xr:uid="{8522919C-743E-0443-9C82-76E6FB9D9CB6}"/>
+    <hyperlink ref="F24" r:id="rId8" tooltip="Click to view additional information on this product." display="https://www.mouser.co.il/ProductDetail/Diodes-Incorporated/1N5819HW-7-F?qs=sGAEpiMZZMtQ8nqTKtFS%2fB%252byFmaLvEBChMEBFjGBzc4%3d" xr:uid="{AD821389-7D71-154E-A95D-8051CDBA1222}"/>
+    <hyperlink ref="F25" r:id="rId9" tooltip="Click to view additional information on this product." display="https://www.mouser.co.il/ProductDetail/ON-Semiconductor/MMBT3904LT1G?qs=sGAEpiMZZMshyDBzk1%2fWi%2fPUgtclNldlheHc%252bMVjFj0%3d" xr:uid="{A3776EA0-BA19-D946-B7E9-58DAF299F4ED}"/>
+    <hyperlink ref="F28" r:id="rId10" tooltip="Click to view additional information on this product." display="https://www.mouser.co.il/ProductDetail/Texas-Instruments/LM4040DIM3-50-NOPB?qs=sGAEpiMZZMuBck1X%252b7j9fFxOFMTVQaIHY0uHQcT5O5c%3d" xr:uid="{F064942C-BB80-C54B-8AB5-4B22B1448B9F}"/>
+    <hyperlink ref="F29" r:id="rId11" tooltip="Click to view additional information on this product." display="https://www.mouser.co.il/ProductDetail/Texas-Instruments/TL072CDR?qs=sGAEpiMZZMtYFXwiBRPs0zzUsTTH4TUq" xr:uid="{384051BC-512A-9A48-B8F7-15FDF7590FDB}"/>
+    <hyperlink ref="F32" r:id="rId12" display="https://www.mouser.co.il/ProductDetail/998-MIC803-26D2VM3TR" xr:uid="{81011A25-B7A6-9944-ADCA-7188FCCE2139}"/>
+    <hyperlink ref="E32" r:id="rId13" display="https://www.mouser.co.il/ProductDetail/998-MIC803-26D2VM3TR" xr:uid="{8191418A-0FC4-0440-8EFC-D3A32EB277E9}"/>
+    <hyperlink ref="F30" r:id="rId14" tooltip="Click to view additional information on this product." display="https://www.mouser.co.il/ProductDetail/Microchip-Technology/MCP6002T-I-SN?qs=sGAEpiMZZMsUzhEcHltCuY6YBL510a4u" xr:uid="{AED12F8F-105E-B347-A4A0-C4813ED7C38C}"/>
+    <hyperlink ref="F27" r:id="rId15" tooltip="Click to view additional information on this product." display="https://www.mouser.co.il/ProductDetail/Texas-Instruments/DAC8565IAPW?qs=sGAEpiMZZMswix2y39yldZvZIVLiL4BNRtsQgzLEDdM%3d" xr:uid="{71D631F5-3878-2B47-A3AE-D00C234BB8FF}"/>
+    <hyperlink ref="F14" r:id="rId16" tooltip="Click to view additional information on this product." display="https://www.mouser.co.il/ProductDetail/KEMET/C0603C220J5GAC7411?qs=sGAEpiMZZMtJOOgnx%2fXJmejeuawQ%252btGe" xr:uid="{E68C9FA3-E7F2-FE47-91C7-DC6D22300FB5}"/>
+    <hyperlink ref="F37" r:id="rId17" display="https://www.mouser.co.il/ProductDetail/612-TL1105SP-250" xr:uid="{2B4B563B-1963-0D41-A19B-940B35388DED}"/>
+    <hyperlink ref="F38" r:id="rId18" display="https://www.mouser.co.il/ProductDetail/612-1R-BK" xr:uid="{9670FC11-3B0F-6D47-B61C-9CC2D1D3B983}"/>
+    <hyperlink ref="F42" r:id="rId19" display="https://www.mouser.co.il/ProductDetail/858-EN11-HSM1BF20" xr:uid="{C1C4F0C5-8028-E140-AAAC-57009FD3B2EE}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
